--- a/biology/Zoologie/Ciliopharyngiella/Ciliopharyngiella.xlsx
+++ b/biology/Zoologie/Ciliopharyngiella/Ciliopharyngiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciliopharyngiellidae
 Ciliopharyngiella est un genre de vers plats marins, le seul de la famille des Ciliopharyngiellidae. Cette famille appartient à l'ordre des Proseriata.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,14 +552,51 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les noms valides complets (avec auteur) de ces taxons sont[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms valides complets (avec auteur) de ces taxons sont :
 pour la famille : Ciliopharyngiellidae Ax, 1952,
 pour l'unique genre : Ciliopharyngiella Ax, 1952.
-Autrefois classée dans les Typhloplanoida (synonyme hétérotypique), la famille des Ciliopharyngiellidae est maintenant classée dans l'ordre des Proseriata[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (16 décembre 2023)[1], le genre Ciliopharyngiella contient les espèces suivantes :
+Autrefois classée dans les Typhloplanoida (synonyme hétérotypique), la famille des Ciliopharyngiellidae est maintenant classée dans l'ordre des Proseriata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ciliopharyngiella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciliopharyngiella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (16 décembre 2023), le genre Ciliopharyngiella contient les espèces suivantes :
 Ciliopharyngiella constricta Martens &amp; Schockaert, 1981
 Ciliopharyngiella intermedia Ax, 1952</t>
         </is>
